--- a/medicine/Sexualité et sexologie/Unhung_Hero/Unhung_Hero.xlsx
+++ b/medicine/Sexualité et sexologie/Unhung_Hero/Unhung_Hero.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Unhung Hero (également typographié UnHung Hero) est un film documentaire américain traité en comédie réalisé par Brian Spitz et sorti en 2013[1],[2].
+Unhung Hero (également typographié UnHung Hero) est un film documentaire américain traité en comédie réalisé par Brian Spitz et sorti en 2013,.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lors d'un match de basket-ball à l'UCLA, Patrick Moote fait sa demande en mariage à sa petite amie, mais celle-ci la rejette à cause de la petite taille de son pénis. Le clip vidéo de cette proposition est posté sur YouTube et devient un phénomène sur Internet. Moote voyage alors dans le monde entier pour savoir si la taille du pénis compte vraiment et quels sont les possibilités d'agrandissement[3],[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors d'un match de basket-ball à l'UCLA, Patrick Moote fait sa demande en mariage à sa petite amie, mais celle-ci la rejette à cause de la petite taille de son pénis. Le clip vidéo de cette proposition est posté sur YouTube et devient un phénomène sur Internet. Moote voyage alors dans le monde entier pour savoir si la taille du pénis compte vraiment et quels sont les possibilités d'agrandissement.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Unhung Hero
 Réalisation : Brian Spitz
@@ -582,7 +598,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Patrick Moote : lui-même
 Jonah Falcon : lui-même
